--- a/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/performance/mapping.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/performance/mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="153">
   <si>
     <t>Data Mapping mappings1</t>
   </si>
@@ -301,12 +301,6 @@
   </si>
   <si>
     <t>Data Mapping mappings4</t>
-  </si>
-  <si>
-    <t>constructionTypeCd != null</t>
-  </si>
-  <si>
-    <t>constructionType != null</t>
   </si>
   <si>
     <t>code</t>
@@ -1330,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1391,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="45">
@@ -1420,7 +1414,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -1708,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1842,7 +1836,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
@@ -1859,10 +1853,10 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -1871,16 +1865,10 @@
         <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -1938,7 +1926,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
         <v>53</v>
@@ -1991,13 +1979,13 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -2005,7 +1993,7 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
         <v>78</v>
@@ -2019,7 +2007,7 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
         <v>79</v>
@@ -2033,7 +2021,7 @@
         <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -2047,7 +2035,7 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
         <v>52</v>
@@ -2061,7 +2049,7 @@
         <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
         <v>86</v>
@@ -2075,7 +2063,7 @@
         <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
         <v>52</v>
@@ -2089,7 +2077,7 @@
         <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
         <v>87</v>
@@ -2103,7 +2091,7 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>88</v>
@@ -2127,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2142,7 +2130,7 @@
   <sheetData>
     <row r="4" spans="3:7" ht="16.5" customHeight="1">
       <c r="C4" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -2155,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -2163,21 +2151,21 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="3:7">
@@ -2192,31 +2180,31 @@
     </row>
     <row r="16" spans="3:7">
       <c r="G16" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" s="14"/>
     </row>
@@ -2230,10 +2218,10 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="7:8">
@@ -2241,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="7:8">
@@ -2252,21 +2240,21 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H30" s="31"/>
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H32" s="14"/>
     </row>
@@ -2280,10 +2268,10 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="7:8">
@@ -2291,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="7:8">
@@ -2326,7 +2314,7 @@
   <sheetData>
     <row r="4" spans="3:9">
       <c r="C4" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="33"/>
       <c r="I4" s="10"/>
@@ -2336,7 +2324,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:9">
@@ -2344,53 +2332,53 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2402,7 @@
   <sheetData>
     <row r="5" spans="2:6">
       <c r="B5" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -2423,7 +2411,7 @@
     </row>
     <row r="6" spans="2:6" ht="106.5" customHeight="1">
       <c r="B6" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -2432,7 +2420,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -2441,7 +2429,7 @@
     </row>
     <row r="11" spans="2:6" ht="109.5" customHeight="1">
       <c r="B11" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -2479,7 +2467,7 @@
   <sheetData>
     <row r="5" spans="2:7">
       <c r="B5" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -2489,42 +2477,42 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75">
@@ -2541,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -2570,28 +2558,28 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="40"/>
       <c r="C6" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="40"/>
       <c r="C7" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
